--- a/src/test/resources/Excel/validData.xlsx
+++ b/src/test/resources/Excel/validData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10150" windowHeight="2340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10690" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J6"/>
+  <oleSize ref="A1:I6"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ValidProduct</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG Galaxy Book5 </t>
+  </si>
+  <si>
+    <t>Fridge</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -449,6 +452,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:1" ht="15.5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -458,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
